--- a/Template Crypto PNL.xlsx
+++ b/Template Crypto PNL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
   <si>
     <t>Crypto Futuros PNL</t>
   </si>
@@ -595,36 +595,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4285F4"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr/>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Futuros!$C$25:$C$48</c:f>
@@ -637,11 +607,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1233813062"/>
-        <c:axId val="1497397708"/>
+        <c:axId val="2039264689"/>
+        <c:axId val="1690452708"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1233813062"/>
+        <c:axId val="2039264689"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,85 +663,22 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1497397708"/>
+        <c:crossAx val="1690452708"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1497397708"/>
+        <c:axId val="1690452708"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
         </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1233813062"/>
+        <c:crossAx val="2039264689"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -807,36 +714,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4285F4"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr/>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Futuros!$C$52:$C$75</c:f>
@@ -849,11 +726,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1298869054"/>
-        <c:axId val="836819314"/>
+        <c:axId val="2116131402"/>
+        <c:axId val="1766719279"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1298869054"/>
+        <c:axId val="2116131402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,85 +782,22 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="836819314"/>
+        <c:crossAx val="1766719279"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="836819314"/>
+        <c:axId val="1766719279"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
         </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1298869054"/>
+        <c:crossAx val="2116131402"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1061,11 +875,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="405768659"/>
-        <c:axId val="1888677865"/>
+        <c:axId val="1274058524"/>
+        <c:axId val="1821914756"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="405768659"/>
+        <c:axId val="1274058524"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1117,10 +931,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888677865"/>
+        <c:crossAx val="1821914756"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1888677865"/>
+        <c:axId val="1821914756"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1195,7 +1009,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405768659"/>
+        <c:crossAx val="1274058524"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1819,41 +1633,33 @@
       </c>
       <c r="D25" s="22">
         <f t="shared" ref="D25:D48" si="1">F25*H25</f>
-        <v>10</v>
-      </c>
-      <c r="E25" s="23">
+        <v>0</v>
+      </c>
+      <c r="E25" s="23" t="str">
         <f t="shared" ref="E25:E48" si="2">D25/I25</f>
-        <v>5</v>
-      </c>
-      <c r="F25" s="24">
-        <v>10.0</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="24"/>
       <c r="G25" s="11">
         <v>45713.833333333336</v>
       </c>
-      <c r="H25" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="I25" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="J25" s="27">
-        <v>2.0</v>
-      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
       <c r="K25" s="11">
         <v>45713.875</v>
       </c>
-      <c r="L25" s="28">
-        <f t="shared" ref="L25:L48" si="3">(M25/E25)</f>
-        <v>4</v>
+      <c r="L25" s="28" t="str">
+        <f t="shared" ref="L25:L48" si="3">((J25-H25)/H25)*I25</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M25" s="29">
         <f t="shared" ref="M25:M48" si="4">(J25-H25)*F25*I25</f>
-        <v>20</v>
-      </c>
-      <c r="N25" s="30">
-        <f t="shared" ref="N25:N48" si="5">H25*(1-$C$9%)</f>
-        <v>0.965</v>
+        <v>0</v>
+      </c>
+      <c r="N25" s="30" t="str">
+        <f t="shared" ref="N25:N48" si="5">H25*(1-$C$9/(I25*100))</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O25" s="31">
         <f t="shared" ref="O25:O48" si="6">(K25-G25)</f>
@@ -1863,7 +1669,7 @@
       <c r="S25" s="33"/>
       <c r="AD25" s="34">
         <f>TODAY()</f>
-        <v>45719</v>
+        <v>45729</v>
       </c>
       <c r="AE25" s="35">
         <f>AE23</f>
@@ -1874,53 +1680,37 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="20">
-        <v>45714.0</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>42</v>
-      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="22">
         <f t="shared" si="1"/>
-        <v>4.2</v>
-      </c>
-      <c r="E26" s="23">
+        <v>0</v>
+      </c>
+      <c r="E26" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>1.4</v>
-      </c>
-      <c r="F26" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="G26" s="11">
-        <v>45714.833333333336</v>
-      </c>
-      <c r="H26" s="25">
-        <v>1.4</v>
-      </c>
-      <c r="I26" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="J26" s="27">
-        <v>1.8</v>
-      </c>
-      <c r="K26" s="11">
-        <v>45714.875</v>
-      </c>
-      <c r="L26" s="28">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>2.571428571</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M26" s="29">
         <f t="shared" si="4"/>
-        <v>3.6</v>
-      </c>
-      <c r="N26" s="30">
+        <v>0</v>
+      </c>
+      <c r="N26" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>1.351</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O26" s="31">
         <f t="shared" si="6"/>
-        <v>0.04166666666</v>
+        <v>0</v>
       </c>
       <c r="P26" s="32"/>
       <c r="AD26" s="37"/>
@@ -1933,53 +1723,37 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="20">
-        <v>45715.0</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>42</v>
-      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="22">
         <f t="shared" si="1"/>
-        <v>5.2</v>
-      </c>
-      <c r="E27" s="23">
+        <v>0</v>
+      </c>
+      <c r="E27" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>1.04</v>
-      </c>
-      <c r="F27" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="G27" s="11">
-        <v>45715.833333333336</v>
-      </c>
-      <c r="H27" s="25">
-        <v>1.3</v>
-      </c>
-      <c r="I27" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="J27" s="27">
-        <v>1.73</v>
-      </c>
-      <c r="K27" s="11">
-        <v>45715.875</v>
-      </c>
-      <c r="L27" s="28">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>8.269230769</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M27" s="29">
         <f t="shared" si="4"/>
-        <v>8.6</v>
-      </c>
-      <c r="N27" s="30">
+        <v>0</v>
+      </c>
+      <c r="N27" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>1.2545</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O27" s="31">
         <f t="shared" si="6"/>
-        <v>0.04166666666</v>
+        <v>0</v>
       </c>
       <c r="P27" s="32"/>
       <c r="AD27" s="37"/>
@@ -2016,9 +1790,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N28" s="30">
+      <c r="N28" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O28" s="31">
         <f t="shared" si="6"/>
@@ -2059,9 +1833,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N29" s="30">
+      <c r="N29" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O29" s="31">
         <f t="shared" si="6"/>
@@ -2102,9 +1876,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N30" s="30">
+      <c r="N30" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O30" s="31">
         <f t="shared" si="6"/>
@@ -2145,9 +1919,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N31" s="30">
+      <c r="N31" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O31" s="31">
         <f t="shared" si="6"/>
@@ -2188,9 +1962,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N32" s="30">
+      <c r="N32" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O32" s="31">
         <f t="shared" si="6"/>
@@ -2231,9 +2005,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N33" s="30">
+      <c r="N33" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O33" s="31">
         <f t="shared" si="6"/>
@@ -2274,9 +2048,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N34" s="30">
+      <c r="N34" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O34" s="31">
         <f t="shared" si="6"/>
@@ -2317,9 +2091,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N35" s="30">
+      <c r="N35" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O35" s="31">
         <f t="shared" si="6"/>
@@ -2360,9 +2134,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N36" s="30">
+      <c r="N36" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O36" s="31">
         <f t="shared" si="6"/>
@@ -2403,9 +2177,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N37" s="30">
+      <c r="N37" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O37" s="31">
         <f t="shared" si="6"/>
@@ -2446,9 +2220,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N38" s="30">
+      <c r="N38" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O38" s="31">
         <f t="shared" si="6"/>
@@ -2489,9 +2263,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N39" s="30">
+      <c r="N39" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O39" s="31">
         <f t="shared" si="6"/>
@@ -2532,9 +2306,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N40" s="30">
+      <c r="N40" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O40" s="31">
         <f t="shared" si="6"/>
@@ -2575,9 +2349,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N41" s="30">
+      <c r="N41" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O41" s="31">
         <f t="shared" si="6"/>
@@ -2618,9 +2392,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N42" s="30">
+      <c r="N42" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O42" s="31">
         <f t="shared" si="6"/>
@@ -2661,9 +2435,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N43" s="30">
+      <c r="N43" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O43" s="31">
         <f t="shared" si="6"/>
@@ -2704,9 +2478,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N44" s="30">
+      <c r="N44" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O44" s="31">
         <f t="shared" si="6"/>
@@ -2750,9 +2524,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N45" s="30">
+      <c r="N45" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O45" s="31">
         <f t="shared" si="6"/>
@@ -2793,9 +2567,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N46" s="30">
+      <c r="N46" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O46" s="31">
         <f t="shared" si="6"/>
@@ -2836,9 +2610,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N47" s="30">
+      <c r="N47" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O47" s="31">
         <f t="shared" si="6"/>
@@ -2879,9 +2653,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N48" s="30">
+      <c r="N48" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O48" s="31">
         <f t="shared" si="6"/>
@@ -2992,51 +2766,43 @@
     <row r="52">
       <c r="B52" s="34">
         <f>TODAY()</f>
-        <v>45719</v>
+        <v>45729</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D52" s="22">
         <f t="shared" ref="D52:D75" si="8">F52*H52</f>
-        <v>9200</v>
-      </c>
-      <c r="E52" s="23">
+        <v>0</v>
+      </c>
+      <c r="E52" s="23" t="str">
         <f t="shared" ref="E52:E75" si="9">D52/I52</f>
-        <v>9200</v>
-      </c>
-      <c r="F52" s="24">
-        <v>0.1</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" s="24"/>
       <c r="G52" s="11">
         <v>45713.833333333336</v>
       </c>
-      <c r="H52" s="25">
-        <v>92000.0</v>
-      </c>
-      <c r="I52" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="J52" s="25">
-        <v>90000.0</v>
-      </c>
+      <c r="H52" s="25"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="25"/>
       <c r="K52" s="11">
         <v>45713.84027777778</v>
       </c>
-      <c r="L52" s="28">
-        <f t="shared" ref="L52:L75" si="10">(M52/E52)</f>
-        <v>0.02173913043</v>
+      <c r="L52" s="28" t="str">
+        <f>((H52-J52)/H52)*I52</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M52" s="42">
-        <f t="shared" ref="M52:M75" si="11">(H52-J52)*F52*I52</f>
-        <v>200</v>
-      </c>
-      <c r="N52" s="43">
-        <f t="shared" ref="N52:N75" si="12">H52*(1+$C$9%)</f>
-        <v>95220</v>
+        <f t="shared" ref="M52:M75" si="10">(H52-J52)*F52</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="43" t="str">
+        <f t="shared" ref="N52:N75" si="11">H52*(1+($C$9/(I52*100)))</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O52" s="31">
-        <f t="shared" ref="O52:O75" si="13">(K52-G52)</f>
+        <f t="shared" ref="O52:O75" si="12">(K52-G52)</f>
         <v>0.006944444445</v>
       </c>
       <c r="P52" s="32"/>
@@ -3067,19 +2833,19 @@
       <c r="J53" s="25"/>
       <c r="K53" s="11"/>
       <c r="L53" s="28" t="str">
+        <f t="shared" ref="L53:L75" si="13">(M53/E53)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M53" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M53" s="42">
+        <v>0</v>
+      </c>
+      <c r="N53" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O53" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P53" s="32"/>
@@ -3110,19 +2876,19 @@
       <c r="J54" s="25"/>
       <c r="K54" s="11"/>
       <c r="L54" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M54" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M54" s="42">
+        <v>0</v>
+      </c>
+      <c r="N54" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O54" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P54" s="32"/>
@@ -3153,19 +2919,19 @@
       <c r="J55" s="25"/>
       <c r="K55" s="7"/>
       <c r="L55" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M55" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M55" s="42">
+        <v>0</v>
+      </c>
+      <c r="N55" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O55" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O55" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P55" s="32"/>
@@ -3196,19 +2962,19 @@
       <c r="J56" s="25"/>
       <c r="K56" s="7"/>
       <c r="L56" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M56" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M56" s="42">
+        <v>0</v>
+      </c>
+      <c r="N56" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O56" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O56" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P56" s="32"/>
@@ -3239,19 +3005,19 @@
       <c r="J57" s="25"/>
       <c r="K57" s="7"/>
       <c r="L57" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M57" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M57" s="42">
+        <v>0</v>
+      </c>
+      <c r="N57" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O57" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O57" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P57" s="32"/>
@@ -3282,19 +3048,19 @@
       <c r="J58" s="25"/>
       <c r="K58" s="7"/>
       <c r="L58" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M58" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M58" s="42">
+        <v>0</v>
+      </c>
+      <c r="N58" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O58" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P58" s="32"/>
@@ -3325,19 +3091,19 @@
       <c r="J59" s="25"/>
       <c r="K59" s="7"/>
       <c r="L59" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M59" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M59" s="42">
+        <v>0</v>
+      </c>
+      <c r="N59" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N59" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O59" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O59" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P59" s="32"/>
@@ -3368,19 +3134,19 @@
       <c r="J60" s="25"/>
       <c r="K60" s="7"/>
       <c r="L60" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M60" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M60" s="42">
+        <v>0</v>
+      </c>
+      <c r="N60" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N60" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O60" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O60" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P60" s="32"/>
@@ -3411,19 +3177,19 @@
       <c r="J61" s="25"/>
       <c r="K61" s="7"/>
       <c r="L61" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M61" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M61" s="42">
+        <v>0</v>
+      </c>
+      <c r="N61" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N61" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O61" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P61" s="32"/>
@@ -3454,19 +3220,19 @@
       <c r="J62" s="25"/>
       <c r="K62" s="7"/>
       <c r="L62" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M62" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M62" s="42">
+        <v>0</v>
+      </c>
+      <c r="N62" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N62" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O62" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O62" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P62" s="32"/>
@@ -3497,19 +3263,19 @@
       <c r="J63" s="25"/>
       <c r="K63" s="7"/>
       <c r="L63" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M63" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M63" s="42">
+        <v>0</v>
+      </c>
+      <c r="N63" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N63" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O63" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O63" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P63" s="32"/>
@@ -3540,19 +3306,19 @@
       <c r="J64" s="25"/>
       <c r="K64" s="7"/>
       <c r="L64" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M64" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M64" s="42">
+        <v>0</v>
+      </c>
+      <c r="N64" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N64" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O64" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O64" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P64" s="32"/>
@@ -3583,19 +3349,19 @@
       <c r="J65" s="25"/>
       <c r="K65" s="7"/>
       <c r="L65" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M65" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M65" s="42">
+        <v>0</v>
+      </c>
+      <c r="N65" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N65" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O65" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O65" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P65" s="32"/>
@@ -3626,19 +3392,19 @@
       <c r="J66" s="25"/>
       <c r="K66" s="7"/>
       <c r="L66" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M66" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M66" s="42">
+        <v>0</v>
+      </c>
+      <c r="N66" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N66" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O66" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P66" s="32"/>
@@ -3669,19 +3435,19 @@
       <c r="J67" s="25"/>
       <c r="K67" s="7"/>
       <c r="L67" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M67" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M67" s="42">
+        <v>0</v>
+      </c>
+      <c r="N67" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N67" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O67" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P67" s="32"/>
@@ -3712,19 +3478,19 @@
       <c r="J68" s="25"/>
       <c r="K68" s="7"/>
       <c r="L68" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M68" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M68" s="42">
+        <v>0</v>
+      </c>
+      <c r="N68" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N68" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O68" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O68" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P68" s="32"/>
@@ -3755,19 +3521,19 @@
       <c r="J69" s="25"/>
       <c r="K69" s="7"/>
       <c r="L69" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M69" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M69" s="42">
+        <v>0</v>
+      </c>
+      <c r="N69" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N69" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O69" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O69" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P69" s="32"/>
@@ -3798,19 +3564,19 @@
       <c r="J70" s="25"/>
       <c r="K70" s="7"/>
       <c r="L70" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M70" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M70" s="42">
+        <v>0</v>
+      </c>
+      <c r="N70" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N70" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O70" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O70" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P70" s="32"/>
@@ -3841,19 +3607,19 @@
       <c r="J71" s="25"/>
       <c r="K71" s="7"/>
       <c r="L71" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M71" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M71" s="42">
+        <v>0</v>
+      </c>
+      <c r="N71" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N71" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O71" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O71" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P71" s="32"/>
@@ -3884,19 +3650,19 @@
       <c r="J72" s="25"/>
       <c r="K72" s="7"/>
       <c r="L72" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M72" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M72" s="42">
+        <v>0</v>
+      </c>
+      <c r="N72" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N72" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O72" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O72" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P72" s="32"/>
@@ -3927,19 +3693,19 @@
       <c r="J73" s="25"/>
       <c r="K73" s="7"/>
       <c r="L73" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M73" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M73" s="42">
+        <v>0</v>
+      </c>
+      <c r="N73" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N73" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O73" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O73" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P73" s="32"/>
@@ -3970,19 +3736,19 @@
       <c r="J74" s="25"/>
       <c r="K74" s="7"/>
       <c r="L74" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M74" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M74" s="42">
+        <v>0</v>
+      </c>
+      <c r="N74" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N74" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O74" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O74" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P74" s="32"/>
@@ -4013,19 +3779,19 @@
       <c r="J75" s="25"/>
       <c r="K75" s="7"/>
       <c r="L75" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M75" s="42">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M75" s="42">
+        <v>0</v>
+      </c>
+      <c r="N75" s="43" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N75" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O75" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O75" s="31">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P75" s="32"/>
